--- a/src/yarm/tests_data/test_validate_complete_config_valid/OUTPUT/BASENAME.xlsx
+++ b/src/yarm/tests_data/test_validate_complete_config_valid/OUTPUT/BASENAME.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,38 +435,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>FIELD_A</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>MATCH A1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>MATCH A1</t>
         </is>
@@ -483,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,53 +486,47 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>FIELD_A</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>FIELD_A</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>FIELD_B</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="n">
         <v>2</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>REPLACE A1</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>REPLACE A1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
         <is>
           <t>aaaa</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>REPLACE A1</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>REPLACE A1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t>cccc</t>
         </is>

--- a/src/yarm/tests_data/test_validate_complete_config_valid/OUTPUT/BASENAME.xlsx
+++ b/src/yarm/tests_data/test_validate_complete_config_valid/OUTPUT/BASENAME.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>FIELD_A</t>
+          <t>COLUMN_A</t>
         </is>
       </c>
     </row>
@@ -493,12 +493,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>FIELD_A</t>
+          <t>COLUMN_A</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>FIELD_B</t>
+          <t>COLUMN_B</t>
         </is>
       </c>
     </row>
